--- a/data/trans_orig/P1410-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4796</v>
+        <v>5327</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001911592981175483</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009706422093871365</v>
+        <v>0.0107828002689612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5936</v>
+        <v>4447</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001885073860491823</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01269790693348406</v>
+        <v>0.00951194248042762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6047</v>
+        <v>6282</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001898699879937635</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00628867912481235</v>
+        <v>0.006532850287746642</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>493120</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489268</v>
+        <v>488737</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -824,7 +824,7 @@
         <v>0.9980884070188245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9902935779061287</v>
+        <v>0.9892171997310384</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>466608</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>461553</v>
+        <v>463042</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>467489</v>
@@ -845,7 +845,7 @@
         <v>0.9981149261395081</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9873020930665154</v>
+        <v>0.9904880575195724</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>959727</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>955506</v>
+        <v>955271</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>961553</v>
@@ -866,7 +866,7 @@
         <v>0.9981013001200624</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9937113208751901</v>
+        <v>0.9934671497122534</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -961,19 +961,19 @@
         <v>2815</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8456</v>
+        <v>8429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003827022679376537</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001239848435744611</v>
+        <v>0.001218873171087489</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01149681895365122</v>
+        <v>0.01146019431604954</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -982,19 +982,19 @@
         <v>2830</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8091</v>
+        <v>7500</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004523748140156087</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001386026987984435</v>
+        <v>0.001377571057227237</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01293511323137586</v>
+        <v>0.01199091768683923</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1003,19 +1003,19 @@
         <v>5644</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2639</v>
+        <v>1955</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11498</v>
+        <v>12352</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004147230684983422</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001939305758725575</v>
+        <v>0.001436669739759948</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008448083371094848</v>
+        <v>0.009076012724944682</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>732674</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>727033</v>
+        <v>727060</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>734577</v>
+        <v>734593</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9961729773206235</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9885031810463488</v>
+        <v>0.9885398056839505</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9987601515642553</v>
+        <v>0.9987811268289125</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>588</v>
@@ -1053,19 +1053,19 @@
         <v>622664</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>617403</v>
+        <v>617994</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>624627</v>
+        <v>624632</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9954762518598439</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9870648867686249</v>
+        <v>0.988009082313161</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9986139730120155</v>
+        <v>0.9986224289427728</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1288</v>
@@ -1074,19 +1074,19 @@
         <v>1355338</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1349484</v>
+        <v>1348630</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1358343</v>
+        <v>1359027</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9958527693150165</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9915519166289051</v>
+        <v>0.9909239872750553</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9980606942412744</v>
+        <v>0.99856333026024</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6432</v>
+        <v>6148</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00288534317624576</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01007086943084844</v>
+        <v>0.009626246085766243</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1199,19 +1199,19 @@
         <v>9067</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4866</v>
+        <v>4176</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16507</v>
+        <v>16013</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0131454416964095</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007054374579968755</v>
+        <v>0.006053935855234512</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02393266285478245</v>
+        <v>0.02321618906744938</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1220,19 +1220,19 @@
         <v>10910</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5561</v>
+        <v>5736</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19654</v>
+        <v>19533</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00821263988012283</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004185988655034088</v>
+        <v>0.004318096612354876</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0147953345411684</v>
+        <v>0.01470376659148927</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>636825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>632236</v>
+        <v>632520</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>638668</v>
@@ -1258,7 +1258,7 @@
         <v>0.9971146568237542</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9899291305691515</v>
+        <v>0.9903737539142352</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>680677</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>673237</v>
+        <v>673731</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>684878</v>
+        <v>685568</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9868545583035905</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9760673371452177</v>
+        <v>0.9767838109325504</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9929456254200312</v>
+        <v>0.9939460641447655</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1260</v>
@@ -1291,19 +1291,19 @@
         <v>1317502</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1308758</v>
+        <v>1308879</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1322851</v>
+        <v>1322676</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9917873601198771</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9852046654588317</v>
+        <v>0.9852962334085112</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9958140113449669</v>
+        <v>0.9956819033876452</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>15367</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8928</v>
+        <v>8452</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25969</v>
+        <v>24980</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02960017317689683</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01719829366516969</v>
+        <v>0.01628096374338701</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05002180987617047</v>
+        <v>0.04811779731112069</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>12198</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6605</v>
+        <v>6406</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21702</v>
+        <v>20314</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02365577752707034</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01280918045401564</v>
+        <v>0.01242330686478357</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04208699088675409</v>
+        <v>0.03939651518830873</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -1437,19 +1437,19 @@
         <v>27565</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18829</v>
+        <v>18555</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40066</v>
+        <v>39399</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0266380428245748</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01819631339380521</v>
+        <v>0.01793077830266426</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03871868226439767</v>
+        <v>0.03807435784731481</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>503780</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493178</v>
+        <v>494167</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>510219</v>
+        <v>510695</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9703998268231032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9499781901238294</v>
+        <v>0.9518822026888794</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9828017063348303</v>
+        <v>0.9837190362566131</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>490</v>
@@ -1487,19 +1487,19 @@
         <v>503444</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>493940</v>
+        <v>495328</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>509037</v>
+        <v>509236</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9763442224729296</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9579130091132464</v>
+        <v>0.9606034848116913</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9871908195459848</v>
+        <v>0.9875766931352166</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>959</v>
@@ -1508,19 +1508,19 @@
         <v>1007224</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>994723</v>
+        <v>995390</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1015960</v>
+        <v>1016234</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9733619571754252</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9612813177356023</v>
+        <v>0.9619256421526853</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9818036866061948</v>
+        <v>0.9820692216973359</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>41949</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30791</v>
+        <v>31007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55437</v>
+        <v>55532</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.108476206302058</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07962301960887368</v>
+        <v>0.08018208674982601</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1433563395143711</v>
+        <v>0.1435998717676181</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1633,19 +1633,19 @@
         <v>20058</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12593</v>
+        <v>12207</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30338</v>
+        <v>29451</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04965032184168672</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03117065640774804</v>
+        <v>0.03021672078799116</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07509566973234319</v>
+        <v>0.07290077097880376</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -1654,19 +1654,19 @@
         <v>62007</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48555</v>
+        <v>48727</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>76618</v>
+        <v>77647</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07842061970795439</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06140854933567377</v>
+        <v>0.0616249928651099</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09690000186846681</v>
+        <v>0.0982006823603712</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>344761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>331273</v>
+        <v>331178</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>355919</v>
+        <v>355703</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.891523793697942</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8566436604856289</v>
+        <v>0.8564001282323819</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9203769803911263</v>
+        <v>0.9198179132501739</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>377</v>
@@ -1704,19 +1704,19 @@
         <v>383928</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>373648</v>
+        <v>374535</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>391393</v>
+        <v>391779</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9503496781583133</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9249043302676568</v>
+        <v>0.9270992290211967</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9688293435922519</v>
+        <v>0.9697832792120089</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>726</v>
@@ -1725,19 +1725,19 @@
         <v>728689</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>714078</v>
+        <v>713049</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>742141</v>
+        <v>741969</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9215793802920457</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9030999981315332</v>
+        <v>0.9017993176396287</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9385914506643261</v>
+        <v>0.9383750071348897</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>41669</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30971</v>
+        <v>31491</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54687</v>
+        <v>54502</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.142417141096018</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1058544762160145</v>
+        <v>0.1076323639635832</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1869104500420029</v>
+        <v>0.1862772593557984</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -1850,19 +1850,19 @@
         <v>29074</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20262</v>
+        <v>20806</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40719</v>
+        <v>40066</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08478023457430013</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05908523679307762</v>
+        <v>0.06066953808057771</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1187357411646193</v>
+        <v>0.116832781122354</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -1871,19 +1871,19 @@
         <v>70743</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56837</v>
+        <v>55602</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86052</v>
+        <v>86839</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1113154477216357</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08943360941765911</v>
+        <v>0.08749110566351329</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1354050186482327</v>
+        <v>0.1366426380692689</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>250914</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>237896</v>
+        <v>238081</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261612</v>
+        <v>261092</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.857582858903982</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8130895499579971</v>
+        <v>0.8137227406442017</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8941455237839855</v>
+        <v>0.892367636036417</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>340</v>
@@ -1921,19 +1921,19 @@
         <v>313860</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>302215</v>
+        <v>302868</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>322672</v>
+        <v>322128</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9152197654256998</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8812642588353806</v>
+        <v>0.8831672188776462</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9409147632069224</v>
+        <v>0.9393304619194226</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>599</v>
@@ -1942,19 +1942,19 @@
         <v>564774</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>549465</v>
+        <v>548678</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>578680</v>
+        <v>579915</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8886845522783643</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8645949813517676</v>
+        <v>0.8633573619307312</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9105663905823411</v>
+        <v>0.9125088943364867</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>45575</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35188</v>
+        <v>35099</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58002</v>
+        <v>58447</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2171430784098443</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1676554546511702</v>
+        <v>0.1672302073743986</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2763528524703867</v>
+        <v>0.2784740374698143</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -2067,19 +2067,19 @@
         <v>52593</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40204</v>
+        <v>40888</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68555</v>
+        <v>68616</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1575066724964481</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1204039872388469</v>
+        <v>0.1224523195056327</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2053106887126442</v>
+        <v>0.2054940643570415</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -2088,19 +2088,19 @@
         <v>98167</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81364</v>
+        <v>81354</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>119232</v>
+        <v>117923</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1805240968518403</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1496238424286118</v>
+        <v>0.1496054414185465</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2192613718129525</v>
+        <v>0.2168532592937716</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>164308</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>151881</v>
+        <v>151436</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>174695</v>
+        <v>174784</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7828569215901557</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7236471475296133</v>
+        <v>0.7215259625301857</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8323445453488297</v>
+        <v>0.8327697926256014</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>244</v>
@@ -2138,19 +2138,19 @@
         <v>281315</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>265353</v>
+        <v>265292</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>293704</v>
+        <v>293020</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8424933275035519</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.794689311287356</v>
+        <v>0.7945059356429586</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8795960127611532</v>
+        <v>0.8775476804943677</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>416</v>
@@ -2159,19 +2159,19 @@
         <v>445624</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>424559</v>
+        <v>425868</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>462427</v>
+        <v>462437</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8194759031481597</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7807386281870476</v>
+        <v>0.7831467407062286</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8503761575713882</v>
+        <v>0.8503945585814535</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>150161</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>127786</v>
+        <v>127598</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>175363</v>
+        <v>175487</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04582912735317917</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03900027898647941</v>
+        <v>0.03894281461263312</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05352067719743866</v>
+        <v>0.05355845896557711</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>121</v>
@@ -2284,19 +2284,19 @@
         <v>126701</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>106448</v>
+        <v>105758</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>151570</v>
+        <v>152079</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03749427037481552</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03150103171217517</v>
+        <v>0.03129663667719019</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.044853782547829</v>
+        <v>0.04500453011085189</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>277</v>
@@ -2305,19 +2305,19 @@
         <v>276862</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>243463</v>
+        <v>243037</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>310138</v>
+        <v>308181</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04159742304938911</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03657946033317552</v>
+        <v>0.0365154633036894</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04659699817191171</v>
+        <v>0.046303080971237</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3126382</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3101180</v>
+        <v>3101056</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3148757</v>
+        <v>3148945</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9541708726468209</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9464793228025611</v>
+        <v>0.9464415410344228</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9609997210135205</v>
+        <v>0.9610571853873662</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3176</v>
@@ -2355,19 +2355,19 @@
         <v>3252496</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3227627</v>
+        <v>3227118</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3272749</v>
+        <v>3273439</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9625057296251844</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.955146217452171</v>
+        <v>0.9549954698891485</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9684989682878248</v>
+        <v>0.9687033633228099</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6234</v>
@@ -2376,19 +2376,19 @@
         <v>6378879</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6345603</v>
+        <v>6347560</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6412278</v>
+        <v>6412704</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9584025769506109</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9534030018280881</v>
+        <v>0.953696919028763</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9634205396668245</v>
+        <v>0.9634845366963105</v>
       </c>
     </row>
     <row r="27">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6696</v>
+        <v>6683</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004211015718551338</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01474512753734466</v>
+        <v>0.01471555970065661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2744,19 +2744,19 @@
         <v>4868</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10685</v>
+        <v>10666</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01131454172398071</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004488346526526617</v>
+        <v>0.004470872609171254</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02483574650017697</v>
+        <v>0.02479067179309417</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2765,19 +2765,19 @@
         <v>6780</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2898</v>
+        <v>2880</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13585</v>
+        <v>12868</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007666727714864196</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0032772462274339</v>
+        <v>0.003256712777477714</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0153610511499806</v>
+        <v>0.01454994009078097</v>
       </c>
     </row>
     <row r="5">
@@ -2794,7 +2794,7 @@
         <v>452234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>447450</v>
+        <v>447463</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>454146</v>
@@ -2803,7 +2803,7 @@
         <v>0.9957889842814487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9852548724626553</v>
+        <v>0.9852844402993434</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2815,19 +2815,19 @@
         <v>425362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>419545</v>
+        <v>419564</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>428299</v>
+        <v>428306</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9886854582760193</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9751642534998231</v>
+        <v>0.9752093282069059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9955116534734734</v>
+        <v>0.9955291273908288</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>860</v>
@@ -2836,19 +2836,19 @@
         <v>877596</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>870791</v>
+        <v>871508</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>881478</v>
+        <v>881496</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9923332722851358</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9846389488500193</v>
+        <v>0.9854500599092219</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9967227537725661</v>
+        <v>0.9967432872225224</v>
       </c>
     </row>
     <row r="6">
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7290</v>
+        <v>8022</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003017035330050058</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01060955499103317</v>
+        <v>0.01167499588293651</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7554</v>
+        <v>5850</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003125522686700978</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0123779243699114</v>
+        <v>0.009586578622408505</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2982,19 +2982,19 @@
         <v>3980</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1033</v>
+        <v>982</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9950</v>
+        <v>10683</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003068066571837215</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0007959715465596012</v>
+        <v>0.0007565780394610907</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007669677329804663</v>
+        <v>0.008234459255120253</v>
       </c>
     </row>
     <row r="8">
@@ -3011,7 +3011,7 @@
         <v>685014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>679797</v>
+        <v>679065</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>687087</v>
@@ -3020,7 +3020,7 @@
         <v>0.99698296466995</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9893904450089671</v>
+        <v>0.9883250041170668</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3032,7 +3032,7 @@
         <v>608348</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>602701</v>
+        <v>604405</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>610255</v>
@@ -3041,7 +3041,7 @@
         <v>0.996874477313299</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9876220756300884</v>
+        <v>0.9904134213775915</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3053,19 +3053,19 @@
         <v>1293362</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1287392</v>
+        <v>1286659</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1296309</v>
+        <v>1296360</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9969319334281628</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9923303226701953</v>
+        <v>0.9917655407448793</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9992040284534404</v>
+        <v>0.9992434219605389</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>6940</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2937</v>
+        <v>3001</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13963</v>
+        <v>13874</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01017833782236112</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004306721787201461</v>
+        <v>0.004400791126286099</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02047766145739534</v>
+        <v>0.0203469475030018</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3178,19 +3178,19 @@
         <v>9724</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4085</v>
+        <v>4905</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17329</v>
+        <v>18195</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01370340824571599</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005757041752467376</v>
+        <v>0.006912926718382303</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02442221622098104</v>
+        <v>0.02564144684581792</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -3199,19 +3199,19 @@
         <v>16664</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9896</v>
+        <v>9663</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27112</v>
+        <v>26263</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01197597535620711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007111834927871405</v>
+        <v>0.006944329564700489</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01948474269887332</v>
+        <v>0.0188744880420398</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>674923</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>667900</v>
+        <v>667989</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>678926</v>
+        <v>678862</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9898216621776389</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9795223385426046</v>
+        <v>0.9796530524969981</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9956932782127985</v>
+        <v>0.9955992088737139</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>657</v>
@@ -3249,19 +3249,19 @@
         <v>699850</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>692245</v>
+        <v>691379</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>705489</v>
+        <v>704669</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.986296591754284</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9755777837790189</v>
+        <v>0.9743585531541821</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9942429582475326</v>
+        <v>0.9930870732816177</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1301</v>
@@ -3270,19 +3270,19 @@
         <v>1374773</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1364325</v>
+        <v>1365174</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1381541</v>
+        <v>1381774</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9880240246437929</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9805152573011264</v>
+        <v>0.9811255119579601</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9928881650721285</v>
+        <v>0.9930556704352994</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>12709</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6050</v>
+        <v>6512</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23965</v>
+        <v>22162</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02067846187191909</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009842777433580604</v>
+        <v>0.01059569888556456</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03899201369059934</v>
+        <v>0.03605894602709673</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -3395,19 +3395,19 @@
         <v>5407</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2141</v>
+        <v>1131</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11874</v>
+        <v>11657</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008803132770780658</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003486047080663506</v>
+        <v>0.00184174224609091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01933064333356167</v>
+        <v>0.01897694093628971</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -3416,19 +3416,19 @@
         <v>18117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10670</v>
+        <v>10820</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30752</v>
+        <v>30264</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01474250210552877</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008683034654934002</v>
+        <v>0.008804802450226152</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02502403680520869</v>
+        <v>0.02462745282014083</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>601908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>590652</v>
+        <v>592455</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>608567</v>
+        <v>608105</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9793215381280809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9610079863094015</v>
+        <v>0.963941053972904</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9901572225664197</v>
+        <v>0.9894043011144356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>533</v>
@@ -3466,19 +3466,19 @@
         <v>608857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>602390</v>
+        <v>602607</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>612123</v>
+        <v>613133</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9911968672292193</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9806693566664384</v>
+        <v>0.9810230590637102</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9965139529193365</v>
+        <v>0.9981582577539091</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1071</v>
@@ -3487,19 +3487,19 @@
         <v>1210763</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1198128</v>
+        <v>1198616</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1218210</v>
+        <v>1218060</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9852574978944713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9749759631947913</v>
+        <v>0.9753725471798592</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9913169653450661</v>
+        <v>0.9911951975497739</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>22722</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14746</v>
+        <v>14541</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33742</v>
+        <v>32666</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05291317614872353</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03433772091681886</v>
+        <v>0.03386233286283978</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07857397062547156</v>
+        <v>0.07606901482020245</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3612,19 +3612,19 @@
         <v>26023</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17638</v>
+        <v>16613</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36869</v>
+        <v>36877</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05811210381232602</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03938769315205826</v>
+        <v>0.0370995189140431</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08233292331763511</v>
+        <v>0.08235115468755509</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -3633,19 +3633,19 @@
         <v>48745</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35730</v>
+        <v>37034</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64406</v>
+        <v>65774</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05556707767644859</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04073089288200004</v>
+        <v>0.0422170515157104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07341988060689496</v>
+        <v>0.07497911338448189</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>406707</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>395687</v>
+        <v>396763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>414683</v>
+        <v>414888</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9470868238512765</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9214260293745284</v>
+        <v>0.9239309851797975</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9656622790831811</v>
+        <v>0.9661376671371602</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>381</v>
@@ -3683,19 +3683,19 @@
         <v>421777</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>410931</v>
+        <v>410923</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>430162</v>
+        <v>431187</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.941887896187674</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9176670766823649</v>
+        <v>0.9176488453124449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9606123068479417</v>
+        <v>0.9629004810859569</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>752</v>
@@ -3704,19 +3704,19 @@
         <v>828484</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>812823</v>
+        <v>811455</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>841499</v>
+        <v>840195</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9444329223235514</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9265801193931048</v>
+        <v>0.9250208866155185</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9592691071179997</v>
+        <v>0.9577829484842896</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>31595</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22107</v>
+        <v>21308</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43121</v>
+        <v>42968</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1019907170604964</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07136270038938376</v>
+        <v>0.06878242310243136</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1391952414538805</v>
+        <v>0.1387034904159618</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -3829,19 +3829,19 @@
         <v>29317</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21074</v>
+        <v>19896</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43040</v>
+        <v>41164</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08281852593970138</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05953133831776843</v>
+        <v>0.05620428600349601</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.121584183169826</v>
+        <v>0.1162836076651797</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -3850,19 +3850,19 @@
         <v>60913</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46215</v>
+        <v>47995</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75472</v>
+        <v>76812</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09176615974495826</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06962387584188269</v>
+        <v>0.07230502332140741</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.113700439249102</v>
+        <v>0.115718140649912</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>278191</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>266665</v>
+        <v>266818</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>287679</v>
+        <v>288478</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8980092829395036</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8608047585461192</v>
+        <v>0.8612965095840381</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9286372996106163</v>
+        <v>0.9312175768975687</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>315</v>
@@ -3900,19 +3900,19 @@
         <v>324679</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>310956</v>
+        <v>312832</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>332922</v>
+        <v>334100</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9171814740602986</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8784158168301738</v>
+        <v>0.8837163923348204</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9404686616822315</v>
+        <v>0.9437957139965041</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>566</v>
@@ -3921,19 +3921,19 @@
         <v>602869</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>588310</v>
+        <v>586970</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>617567</v>
+        <v>615787</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9082338402550417</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8862995607508981</v>
+        <v>0.884281859350088</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9303761241581173</v>
+        <v>0.9276949766785926</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>54335</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41572</v>
+        <v>41214</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68734</v>
+        <v>69806</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2174701735370132</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.16638742743331</v>
+        <v>0.1649547489808462</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2751015707075581</v>
+        <v>0.2793896197803221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -4046,19 +4046,19 @@
         <v>71532</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56152</v>
+        <v>57047</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86967</v>
+        <v>88731</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1844586968770184</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1447965125314426</v>
+        <v>0.1471048852420894</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2242590590532877</v>
+        <v>0.2288071812013688</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>114</v>
@@ -4067,19 +4067,19 @@
         <v>125867</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>106044</v>
+        <v>106976</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>147662</v>
+        <v>150268</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1973936667118171</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1663052107175884</v>
+        <v>0.1677671680310089</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.231573878690053</v>
+        <v>0.2356598238937773</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>195516</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>181117</v>
+        <v>180045</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>208279</v>
+        <v>208637</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7825298264629869</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7248984292924419</v>
+        <v>0.7206103802196778</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.83361257256669</v>
+        <v>0.8350452510191538</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>284</v>
@@ -4117,19 +4117,19 @@
         <v>316264</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>300829</v>
+        <v>299065</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>331644</v>
+        <v>330749</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8155413031229817</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7757409409467123</v>
+        <v>0.7711928187986316</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8552034874685586</v>
+        <v>0.8528951147579107</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>457</v>
@@ -4138,19 +4138,19 @@
         <v>511780</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>489985</v>
+        <v>487379</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>531603</v>
+        <v>530671</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.802606333288183</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7684261213099469</v>
+        <v>0.7643401761062225</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8336947892824115</v>
+        <v>0.8322328319689912</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>132288</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>110682</v>
+        <v>112018</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>158999</v>
+        <v>156848</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03860413220091996</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03229926944250913</v>
+        <v>0.03268903234787433</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04639888393738963</v>
+        <v>0.04577139515693036</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>140</v>
@@ -4263,19 +4263,19 @@
         <v>148779</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>125676</v>
+        <v>125692</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>171504</v>
+        <v>174394</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04186330862912364</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03536255506807281</v>
+        <v>0.03536719525182312</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0482577176488562</v>
+        <v>0.04907084107366125</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>263</v>
@@ -4284,19 +4284,19 @@
         <v>281066</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>249027</v>
+        <v>249684</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>314224</v>
+        <v>317575</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04026339950063997</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03567362293135719</v>
+        <v>0.03576772445043486</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04501323437503094</v>
+        <v>0.04549333223087636</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3294491</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3267780</v>
+        <v>3269931</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3316097</v>
+        <v>3314761</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.96139586779908</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9536011160626103</v>
+        <v>0.9542286048430697</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9677007305574908</v>
+        <v>0.9673109676521257</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3155</v>
@@ -4334,19 +4334,19 @@
         <v>3405137</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3382412</v>
+        <v>3379522</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3428240</v>
+        <v>3428224</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9581366913708763</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9517422823511439</v>
+        <v>0.9509291589263388</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9646374449319273</v>
+        <v>0.9646328047481769</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6241</v>
@@ -4355,19 +4355,19 @@
         <v>6699628</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6666470</v>
+        <v>6663119</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6731667</v>
+        <v>6731010</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.95973660049936</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9549867656249686</v>
+        <v>0.9545066677691235</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9643263770686428</v>
+        <v>0.964232275549565</v>
       </c>
     </row>
     <row r="27">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7622</v>
+        <v>7319</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005132306549597432</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0181720430377316</v>
+        <v>0.0174480414144456</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4723,19 +4723,19 @@
         <v>2921</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8180</v>
+        <v>8104</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007379659855654652</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002323553508576561</v>
+        <v>0.002309025613517471</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0206695558461757</v>
+        <v>0.02047612861581306</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4744,19 +4744,19 @@
         <v>5073</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1930</v>
+        <v>1923</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11626</v>
+        <v>11186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00622330467855032</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002368007518555291</v>
+        <v>0.002359404405604497</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01426150840562338</v>
+        <v>0.01372201662870275</v>
       </c>
     </row>
     <row r="5">
@@ -4773,7 +4773,7 @@
         <v>417310</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411841</v>
+        <v>412144</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4782,7 +4782,7 @@
         <v>0.9948676934504026</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9818279569622684</v>
+        <v>0.9825519585855531</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4794,19 +4794,19 @@
         <v>392834</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>387575</v>
+        <v>387651</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>394835</v>
+        <v>394841</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9926203401443453</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9793304441538233</v>
+        <v>0.9795238713841856</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9976764464914234</v>
+        <v>0.9976909743864826</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>792</v>
@@ -4815,19 +4815,19 @@
         <v>810145</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>803592</v>
+        <v>804032</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>813288</v>
+        <v>813295</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9937766953214496</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9857384915943785</v>
+        <v>0.9862779833712972</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9976319924814447</v>
+        <v>0.9976405955943954</v>
       </c>
     </row>
     <row r="6">
@@ -4932,19 +4932,19 @@
         <v>3888</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8736</v>
+        <v>9589</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006898727062116599</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001718379660441157</v>
+        <v>0.001735809585256891</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01550263665370141</v>
+        <v>0.01701623280862751</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -4953,19 +4953,19 @@
         <v>3888</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9723</v>
+        <v>9757</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003368803719380125</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.000849297787341172</v>
+        <v>0.0008530724559092605</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008425400620776324</v>
+        <v>0.008454279133081454</v>
       </c>
     </row>
     <row r="8">
@@ -4995,19 +4995,19 @@
         <v>559656</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>554808</v>
+        <v>553955</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>562576</v>
+        <v>562566</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9931012729378834</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9844973633462986</v>
+        <v>0.9829837671913726</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9982816203395588</v>
+        <v>0.9982641904147431</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1142</v>
@@ -5016,19 +5016,19 @@
         <v>1150152</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1144317</v>
+        <v>1144283</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1153060</v>
+        <v>1153056</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9966311962806199</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9915745993792237</v>
+        <v>0.9915457208669185</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9991507022126589</v>
+        <v>0.9991469275440907</v>
       </c>
     </row>
     <row r="9">
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7026</v>
+        <v>7061</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002919401358314839</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01050134804126921</v>
+        <v>0.01055346662393271</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5141,19 +5141,19 @@
         <v>7142</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2846</v>
+        <v>3354</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14137</v>
+        <v>14705</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01079902255539498</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004303241941502721</v>
+        <v>0.005071357367291867</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02137452675746715</v>
+        <v>0.02223416550622351</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -5162,19 +5162,19 @@
         <v>9096</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3802</v>
+        <v>3915</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16041</v>
+        <v>17225</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006836379977861068</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002857292272140032</v>
+        <v>0.002942509834046211</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01205649698988135</v>
+        <v>0.01294645420739122</v>
       </c>
     </row>
     <row r="11">
@@ -5191,7 +5191,7 @@
         <v>667144</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>662071</v>
+        <v>662036</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -5200,7 +5200,7 @@
         <v>0.9970805986416852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9894986519587309</v>
+        <v>0.9894465333760672</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5212,19 +5212,19 @@
         <v>654244</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>647249</v>
+        <v>646681</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>658540</v>
+        <v>658032</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.989200977444605</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9786254732425329</v>
+        <v>0.9777658344937765</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9956967580584973</v>
+        <v>0.9949286426327082</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1294</v>
@@ -5233,19 +5233,19 @@
         <v>1321387</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1314442</v>
+        <v>1313258</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1326681</v>
+        <v>1326568</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.993163620022139</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9879435030101184</v>
+        <v>0.9870535457926094</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.99714270772786</v>
+        <v>0.9970574901659538</v>
       </c>
     </row>
     <row r="12">
@@ -5337,19 +5337,19 @@
         <v>12468</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6246</v>
+        <v>7112</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20753</v>
+        <v>22220</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0192989063412918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009667976107481128</v>
+        <v>0.01100850042186161</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03212330461830432</v>
+        <v>0.03439424513109167</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -5358,19 +5358,19 @@
         <v>15744</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8516</v>
+        <v>9262</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25489</v>
+        <v>25310</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02425609801514839</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01311974968429703</v>
+        <v>0.01426931212408546</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03926983124493225</v>
+        <v>0.038993172346288</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -5379,19 +5379,19 @@
         <v>28212</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18530</v>
+        <v>19289</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39731</v>
+        <v>40529</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02178329835635176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01430738229121586</v>
+        <v>0.01489328765687128</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03067766830648881</v>
+        <v>0.03129366247003722</v>
       </c>
     </row>
     <row r="14">
@@ -5408,19 +5408,19 @@
         <v>633580</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>625295</v>
+        <v>623828</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>639802</v>
+        <v>638936</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9807010936587082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9678766953816957</v>
+        <v>0.9656057548689083</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9903320238925188</v>
+        <v>0.9889914995781385</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>587</v>
@@ -5429,19 +5429,19 @@
         <v>633333</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>623588</v>
+        <v>623767</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>640561</v>
+        <v>639815</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9757439019848516</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9607301687550679</v>
+        <v>0.9610068276537119</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.986880250315703</v>
+        <v>0.9857306878759144</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1157</v>
@@ -5450,19 +5450,19 @@
         <v>1266913</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1255394</v>
+        <v>1254596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1276595</v>
+        <v>1275836</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9782167016436483</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9693223316935112</v>
+        <v>0.9687063375299627</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.985692617708784</v>
+        <v>0.9851067123431286</v>
       </c>
     </row>
     <row r="15">
@@ -5554,19 +5554,19 @@
         <v>28654</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18645</v>
+        <v>19343</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42097</v>
+        <v>42778</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05995511057204744</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03901331778442244</v>
+        <v>0.0404744533292978</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08808442677726927</v>
+        <v>0.08950840742746834</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -5575,19 +5575,19 @@
         <v>16752</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10020</v>
+        <v>10000</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26914</v>
+        <v>25613</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03371625658511126</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02016680689064526</v>
+        <v>0.02012779576886557</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0541702717607639</v>
+        <v>0.0515501154498394</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -5596,19 +5596,19 @@
         <v>45406</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32417</v>
+        <v>32914</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61155</v>
+        <v>61426</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04658089047346433</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03325637356915484</v>
+        <v>0.03376620541078226</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06273761492681938</v>
+        <v>0.06301654126548538</v>
       </c>
     </row>
     <row r="17">
@@ -5625,19 +5625,19 @@
         <v>449264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>435821</v>
+        <v>435140</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>459273</v>
+        <v>458575</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9400448894279525</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9119155732227305</v>
+        <v>0.9104915925725316</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9609866822155776</v>
+        <v>0.9595255466707024</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>418</v>
@@ -5646,19 +5646,19 @@
         <v>480097</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>469935</v>
+        <v>471236</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>486829</v>
+        <v>486849</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9662837434148888</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9458297282392361</v>
+        <v>0.9484498845501608</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9798331931093548</v>
+        <v>0.9798722042311344</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>818</v>
@@ -5667,19 +5667,19 @@
         <v>929361</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>913612</v>
+        <v>913341</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>942350</v>
+        <v>941853</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9534191095265356</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9372623850731806</v>
+        <v>0.9369834587345145</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9667436264308452</v>
+        <v>0.9662337945892178</v>
       </c>
     </row>
     <row r="18">
@@ -5771,19 +5771,19 @@
         <v>41227</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30688</v>
+        <v>30073</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54172</v>
+        <v>53874</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1233124231557514</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0917889124768709</v>
+        <v>0.08994943868545073</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1620310340712581</v>
+        <v>0.1611404364969672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -5792,19 +5792,19 @@
         <v>43891</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32171</v>
+        <v>32484</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57196</v>
+        <v>58601</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1161865176382312</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08516313231659864</v>
+        <v>0.08599154885483896</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1514071338624567</v>
+        <v>0.1551273479057329</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>83</v>
@@ -5813,19 +5813,19 @@
         <v>85118</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69941</v>
+        <v>68732</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>104424</v>
+        <v>101586</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1195321583410608</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09821854923672242</v>
+        <v>0.09652060744667273</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1466435829873474</v>
+        <v>0.1426585027929914</v>
       </c>
     </row>
     <row r="20">
@@ -5842,19 +5842,19 @@
         <v>293103</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280158</v>
+        <v>280456</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>303642</v>
+        <v>304257</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8766875768442486</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8379689659287417</v>
+        <v>0.8388595635030333</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9082110875231291</v>
+        <v>0.9100505613145495</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>312</v>
@@ -5863,19 +5863,19 @@
         <v>333871</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>320566</v>
+        <v>319161</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>345591</v>
+        <v>345278</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8838134823617688</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8485928661375434</v>
+        <v>0.8448726520942671</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9148368676834013</v>
+        <v>0.9140084511451609</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>596</v>
@@ -5884,19 +5884,19 @@
         <v>626974</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>607668</v>
+        <v>610506</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>642151</v>
+        <v>643360</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8804678416589392</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8533564170126527</v>
+        <v>0.8573414972070088</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9017814507632776</v>
+        <v>0.9034793925533272</v>
       </c>
     </row>
     <row r="21">
@@ -5988,19 +5988,19 @@
         <v>41102</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31198</v>
+        <v>31183</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53946</v>
+        <v>51969</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.159932970356844</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1213954075867343</v>
+        <v>0.1213370690571055</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2099075667046889</v>
+        <v>0.2022158293736942</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -6009,19 +6009,19 @@
         <v>69190</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52284</v>
+        <v>54345</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>87303</v>
+        <v>88489</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1729024676417102</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1306547459440791</v>
+        <v>0.1358056839745597</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2181656668580187</v>
+        <v>0.2211289132076082</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>99</v>
@@ -6030,19 +6030,19 @@
         <v>110293</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91884</v>
+        <v>92053</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>132286</v>
+        <v>132481</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.167830492216111</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.139818180360344</v>
+        <v>0.1400748226669911</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2012978555663797</v>
+        <v>0.2015938847828548</v>
       </c>
     </row>
     <row r="23">
@@ -6059,19 +6059,19 @@
         <v>215896</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>203052</v>
+        <v>205029</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>225800</v>
+        <v>225815</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.840067029643156</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7900924332953111</v>
+        <v>0.7977841706263065</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8786045924132656</v>
+        <v>0.8786629309428948</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>249</v>
@@ -6080,19 +6080,19 @@
         <v>330979</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>312866</v>
+        <v>311680</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>347885</v>
+        <v>345824</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8270975323582898</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7818343331419813</v>
+        <v>0.7788710867923917</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8693452540559207</v>
+        <v>0.8641943160254402</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>504</v>
@@ -6101,19 +6101,19 @@
         <v>546874</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>524881</v>
+        <v>524686</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>565283</v>
+        <v>565114</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.832169507783889</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7987021444336203</v>
+        <v>0.7984061152171452</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.860181819639656</v>
+        <v>0.8599251773330089</v>
       </c>
     </row>
     <row r="24">
@@ -6205,19 +6205,19 @@
         <v>127557</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>104863</v>
+        <v>107826</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>149149</v>
+        <v>151503</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03757930392139987</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03089336057258889</v>
+        <v>0.03176631023465</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04394030794799772</v>
+        <v>0.04463377889262642</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>138</v>
@@ -6226,19 +6226,19 @@
         <v>159528</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>133641</v>
+        <v>135759</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>185258</v>
+        <v>188514</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04500655351397451</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03770325815068848</v>
+        <v>0.03830071900844918</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05226565948280988</v>
+        <v>0.05318422671458131</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>266</v>
@@ -6247,19 +6247,19 @@
         <v>287085</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>253915</v>
+        <v>252256</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>322102</v>
+        <v>321697</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04137330976841951</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03659295757652977</v>
+        <v>0.03635389394962036</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04641976603389505</v>
+        <v>0.04636137467478451</v>
       </c>
     </row>
     <row r="26">
@@ -6276,19 +6276,19 @@
         <v>3266793</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3245201</v>
+        <v>3242847</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3289487</v>
+        <v>3286524</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9624206960786001</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9560596920520015</v>
+        <v>0.9553662211073738</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9691066394274108</v>
+        <v>0.9682336897653503</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3200</v>
@@ -6297,19 +6297,19 @@
         <v>3385014</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3359284</v>
+        <v>3356028</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3410901</v>
+        <v>3408783</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9549934464860255</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9477343405171903</v>
+        <v>0.9468157732854189</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9622967418493116</v>
+        <v>0.9616992809915509</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6303</v>
@@ -6318,19 +6318,19 @@
         <v>6651807</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6616790</v>
+        <v>6617195</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6684977</v>
+        <v>6686636</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9586266902315805</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.953580233966105</v>
+        <v>0.9536386253252155</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9634070424234702</v>
+        <v>0.9636461060503798</v>
       </c>
     </row>
     <row r="27">
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22176</v>
+        <v>21522</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008838598013307516</v>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05438111415155948</v>
+        <v>0.05277575233311427</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17092</v>
+        <v>15101</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008498092589629736</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04714986896475245</v>
+        <v>0.04165725605912234</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23652</v>
+        <v>22211</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008678353321146633</v>
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.030704190037157</v>
+        <v>0.02883393511314528</v>
       </c>
     </row>
     <row r="5">
@@ -6736,7 +6736,7 @@
         <v>404189</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>385617</v>
+        <v>386271</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6745,7 +6745,7 @@
         <v>0.9911614019866926</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9456188858484404</v>
+        <v>0.9472242476668853</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6757,16 +6757,16 @@
         <v>359431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>345420</v>
+        <v>347411</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9915019074103704</v>
+        <v>0.9915019074103701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9528501310352476</v>
+        <v>0.9583427439408776</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6778,16 +6778,16 @@
         <v>763620</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>746653</v>
+        <v>748094</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9913216466788535</v>
+        <v>0.9913216466788534</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9692958099628431</v>
+        <v>0.971166064886855</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8759</v>
+        <v>8331</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005464208471045946</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01836676284441405</v>
+        <v>0.01746860317557693</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -6903,19 +6903,19 @@
         <v>2814</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7606</v>
+        <v>8047</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005615673421992516</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001685559441709697</v>
+        <v>0.001695003182296541</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01517939799457741</v>
+        <v>0.01605975149774088</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -6924,19 +6924,19 @@
         <v>5420</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1951</v>
+        <v>1756</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12494</v>
+        <v>12268</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005541814394818729</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001994556211652693</v>
+        <v>0.001795753383779314</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01277524869117062</v>
+        <v>0.01254466380438349</v>
       </c>
     </row>
     <row r="8">
@@ -6953,7 +6953,7 @@
         <v>474284</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>468131</v>
+        <v>468559</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
@@ -6962,7 +6962,7 @@
         <v>0.9945357915289541</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9816332371555849</v>
+        <v>0.9825313968244231</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6974,19 +6974,19 @@
         <v>498269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>493477</v>
+        <v>493036</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>500238</v>
+        <v>500234</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9943843265780073</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9848206020054231</v>
+        <v>0.9839402485022588</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9983144405582904</v>
+        <v>0.9983049968177033</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>757</v>
@@ -6995,19 +6995,19 @@
         <v>972553</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>965479</v>
+        <v>965705</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>976022</v>
+        <v>976217</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9944581856051812</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9872247513088291</v>
+        <v>0.9874553361956168</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9980054437883472</v>
+        <v>0.9982042466162206</v>
       </c>
     </row>
     <row r="9">
@@ -7099,19 +7099,19 @@
         <v>5993</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2188</v>
+        <v>2168</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14967</v>
+        <v>14154</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009652841045014276</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003523570468301183</v>
+        <v>0.003492153235601939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02410765021218206</v>
+        <v>0.02279826836406959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -7120,19 +7120,19 @@
         <v>4997</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2108</v>
+        <v>2150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10278</v>
+        <v>9515</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.00804086942299965</v>
+        <v>0.008040869422999652</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00339187207979605</v>
+        <v>0.003459908843201168</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01653835525904735</v>
+        <v>0.01531019020001467</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -7141,19 +7141,19 @@
         <v>10990</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5717</v>
+        <v>6144</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19352</v>
+        <v>19414</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008846432659470629</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004602234002683049</v>
+        <v>0.004945668558650559</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01557746371816425</v>
+        <v>0.01562685085967976</v>
       </c>
     </row>
     <row r="11">
@@ -7170,19 +7170,19 @@
         <v>614844</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>605870</v>
+        <v>606683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>618649</v>
+        <v>618669</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9903471589549858</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9758923497878187</v>
+        <v>0.9772017316359307</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9964764295316988</v>
+        <v>0.9965078467643982</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>838</v>
@@ -7191,19 +7191,19 @@
         <v>616491</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>611210</v>
+        <v>611973</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>619380</v>
+        <v>619338</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9919591305770004</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9834616447409523</v>
+        <v>0.9846898097999853</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9966081279202038</v>
+        <v>0.9965400911567989</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1379</v>
@@ -7212,19 +7212,19 @@
         <v>1231335</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1222973</v>
+        <v>1222911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1236608</v>
+        <v>1236181</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9911535673405296</v>
+        <v>0.9911535673405294</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9844225362818355</v>
+        <v>0.98437314914032</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9953977659973169</v>
+        <v>0.9950543314413492</v>
       </c>
     </row>
     <row r="12">
@@ -7316,19 +7316,19 @@
         <v>21968</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13989</v>
+        <v>14362</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32272</v>
+        <v>33514</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03141768599751071</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02000552382204823</v>
+        <v>0.02053939522249104</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04615381123021235</v>
+        <v>0.04792912889630394</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -7337,19 +7337,19 @@
         <v>16459</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10992</v>
+        <v>11419</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24011</v>
+        <v>24317</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02234746183553389</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01492538524960281</v>
+        <v>0.0155039957790168</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03260190862651781</v>
+        <v>0.03301717739832433</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -7358,19 +7358,19 @@
         <v>38427</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27238</v>
+        <v>27614</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51528</v>
+        <v>50636</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02676488374555884</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01897155193860285</v>
+        <v>0.01923352969778683</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03588956455483049</v>
+        <v>0.03526859046677239</v>
       </c>
     </row>
     <row r="14">
@@ -7387,19 +7387,19 @@
         <v>677269</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>666965</v>
+        <v>665723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>685248</v>
+        <v>684875</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9685823140024893</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9538461887697877</v>
+        <v>0.9520708711036961</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9799944761779515</v>
+        <v>0.979460604777509</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1114</v>
@@ -7408,19 +7408,19 @@
         <v>720036</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>712484</v>
+        <v>712178</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>725503</v>
+        <v>725076</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.977652538164466</v>
+        <v>0.9776525381644662</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9673980913734815</v>
+        <v>0.9669828226016759</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9850746147503965</v>
+        <v>0.9844960042209834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1756</v>
@@ -7429,19 +7429,19 @@
         <v>1397305</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1384204</v>
+        <v>1385096</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1408494</v>
+        <v>1408118</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9732351162544411</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9641104354451695</v>
+        <v>0.9647314095332277</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9810284480613971</v>
+        <v>0.9807664703022132</v>
       </c>
     </row>
     <row r="15">
@@ -7533,19 +7533,19 @@
         <v>52499</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40848</v>
+        <v>40507</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66161</v>
+        <v>67306</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08629647119126015</v>
+        <v>0.08629647119126013</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06714447871769411</v>
+        <v>0.06658364591399479</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1087531776347108</v>
+        <v>0.1106359359175791</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -7554,19 +7554,19 @@
         <v>19948</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13685</v>
+        <v>13849</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27506</v>
+        <v>29010</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03291371402876642</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0225795027323424</v>
+        <v>0.02284966903788263</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0453838624697945</v>
+        <v>0.04786561312986002</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -7575,19 +7575,19 @@
         <v>72447</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59039</v>
+        <v>58813</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89059</v>
+        <v>87934</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05965527709215411</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04861435490155516</v>
+        <v>0.04842812324551032</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.073333916176577</v>
+        <v>0.07240731161119217</v>
       </c>
     </row>
     <row r="17">
@@ -7604,19 +7604,19 @@
         <v>555860</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>542198</v>
+        <v>541053</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>567511</v>
+        <v>567852</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9137035288087401</v>
+        <v>0.91370352880874</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8912468223652887</v>
+        <v>0.889364064082421</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.932855521282306</v>
+        <v>0.9334163540860051</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>967</v>
@@ -7625,19 +7625,19 @@
         <v>586128</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>578570</v>
+        <v>577066</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>592391</v>
+        <v>592227</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9670862859712336</v>
+        <v>0.9670862859712337</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9546161375302055</v>
+        <v>0.95213438687014</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9774204972676577</v>
+        <v>0.9771503309621173</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1572</v>
@@ -7646,19 +7646,19 @@
         <v>1141988</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1125376</v>
+        <v>1126501</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1155396</v>
+        <v>1155622</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9403447229078459</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.926666083823423</v>
+        <v>0.9275926883888077</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9513856450984449</v>
+        <v>0.9515718767544897</v>
       </c>
     </row>
     <row r="18">
@@ -7750,19 +7750,19 @@
         <v>37869</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29209</v>
+        <v>28922</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49063</v>
+        <v>48371</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.09322600923394207</v>
+        <v>0.09322600923394206</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07190598013773958</v>
+        <v>0.07119933264021644</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1207811718217552</v>
+        <v>0.1190776099272143</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -7771,19 +7771,19 @@
         <v>29065</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21731</v>
+        <v>22158</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37437</v>
+        <v>37450</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06637502053419667</v>
+        <v>0.06637502053419665</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04962560493091297</v>
+        <v>0.05060132560009495</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08549403944927898</v>
+        <v>0.08552266282197989</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>112</v>
@@ -7792,19 +7792,19 @@
         <v>66935</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55968</v>
+        <v>55919</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82008</v>
+        <v>79314</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0792966390448616</v>
+        <v>0.07929663904486159</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0663045319108006</v>
+        <v>0.06624680459418052</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09715454370529633</v>
+        <v>0.09396271911471801</v>
       </c>
     </row>
     <row r="20">
@@ -7821,19 +7821,19 @@
         <v>368342</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>357148</v>
+        <v>357840</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>377002</v>
+        <v>377289</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9067739907660579</v>
+        <v>0.9067739907660578</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8792188281782449</v>
+        <v>0.8809223900727859</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9280940198622605</v>
+        <v>0.9288006673597836</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>771</v>
@@ -7842,19 +7842,19 @@
         <v>408827</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>400455</v>
+        <v>400442</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>416161</v>
+        <v>415734</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9336249794658034</v>
+        <v>0.9336249794658033</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9145059605507214</v>
+        <v>0.9144773371780194</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9503743950690872</v>
+        <v>0.9493986743999048</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1282</v>
@@ -7863,19 +7863,19 @@
         <v>777168</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>762095</v>
+        <v>764789</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>788135</v>
+        <v>788184</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9207033609551384</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9028454562947035</v>
+        <v>0.9060372808852819</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9336954680891992</v>
+        <v>0.9337531954058189</v>
       </c>
     </row>
     <row r="21">
@@ -7967,19 +7967,19 @@
         <v>66425</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54179</v>
+        <v>55889</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>79982</v>
+        <v>79401</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2141372654034731</v>
+        <v>0.2141372654034732</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1746588925823525</v>
+        <v>0.1801705516736016</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2578401835019062</v>
+        <v>0.2559688145012182</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>160</v>
@@ -7988,19 +7988,19 @@
         <v>86664</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>75232</v>
+        <v>74300</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>99879</v>
+        <v>98761</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1866920695040956</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1620659278069246</v>
+        <v>0.1600577147035316</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2151602641652202</v>
+        <v>0.2127526381829712</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>259</v>
@@ -8009,19 +8009,19 @@
         <v>153089</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136252</v>
+        <v>135892</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>173007</v>
+        <v>169503</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1976855894161279</v>
+        <v>0.1976855894161278</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1759431462668628</v>
+        <v>0.1754788567278501</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2234063767708681</v>
+        <v>0.2188805865827049</v>
       </c>
     </row>
     <row r="23">
@@ -8038,19 +8038,19 @@
         <v>243773</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>230216</v>
+        <v>230797</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>256019</v>
+        <v>254309</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7858627345965267</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7421598164980937</v>
+        <v>0.7440311854987817</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8253411074176474</v>
+        <v>0.8198294483263985</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>720</v>
@@ -8059,19 +8059,19 @@
         <v>377544</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>364329</v>
+        <v>365447</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>388976</v>
+        <v>389908</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8133079304959043</v>
+        <v>0.8133079304959042</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7848397358347798</v>
+        <v>0.7872473618170288</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8379340721930754</v>
+        <v>0.8399422852964682</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1079</v>
@@ -8080,19 +8080,19 @@
         <v>621318</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>601400</v>
+        <v>604904</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>638155</v>
+        <v>638515</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8023144105838721</v>
+        <v>0.802314410583872</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7765936232291318</v>
+        <v>0.7811194134172952</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8240568537331372</v>
+        <v>0.82452114327215</v>
       </c>
     </row>
     <row r="24">
@@ -8184,19 +8184,19 @@
         <v>190965</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>167357</v>
+        <v>166303</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>220078</v>
+        <v>217632</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05410503543048416</v>
+        <v>0.05410503543048414</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04741618525527302</v>
+        <v>0.04711764813906169</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06235354359166959</v>
+        <v>0.06166053660621145</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>282</v>
@@ -8205,19 +8205,19 @@
         <v>163028</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>145643</v>
+        <v>143823</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>186898</v>
+        <v>184256</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04371010781369578</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03904907007757224</v>
+        <v>0.03856094985357014</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05010991922348631</v>
+        <v>0.04940168977955887</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>526</v>
@@ -8226,19 +8226,19 @@
         <v>353993</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>323552</v>
+        <v>322935</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>387987</v>
+        <v>390617</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.048764213079194</v>
+        <v>0.04876421307919401</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04457084396881287</v>
+        <v>0.04448581522979106</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05344702660870623</v>
+        <v>0.05380932543341041</v>
       </c>
     </row>
     <row r="26">
@@ -8255,19 +8255,19 @@
         <v>3338561</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3309448</v>
+        <v>3311894</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3362169</v>
+        <v>3363223</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9458949645695159</v>
+        <v>0.9458949645695158</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9376464564083301</v>
+        <v>0.9383394633937887</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9525838147447269</v>
+        <v>0.9528823518609382</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5073</v>
@@ -8276,19 +8276,19 @@
         <v>3566726</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3542856</v>
+        <v>3545498</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3584111</v>
+        <v>3585931</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.956289892186304</v>
+        <v>0.9562898921863043</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.949890080776514</v>
+        <v>0.9505983102204413</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9609509299224278</v>
+        <v>0.9614390501464303</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8202</v>
@@ -8297,19 +8297,19 @@
         <v>6905287</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6871293</v>
+        <v>6868663</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6935728</v>
+        <v>6936345</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9512357869208061</v>
+        <v>0.9512357869208059</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9465529733912937</v>
+        <v>0.946190674566589</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9554291560311871</v>
+        <v>0.9555141847702089</v>
       </c>
     </row>
     <row r="27">
